--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H2">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N2">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P2">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q2">
-        <v>36.04619118531211</v>
+        <v>53.43961539878011</v>
       </c>
       <c r="R2">
-        <v>324.415720667809</v>
+        <v>480.956538589021</v>
       </c>
       <c r="S2">
-        <v>0.004066302010873633</v>
+        <v>0.004953100287185186</v>
       </c>
       <c r="T2">
-        <v>0.004066302010873633</v>
+        <v>0.004953100287185183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H3">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P3">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q3">
-        <v>81.70036485284911</v>
+        <v>81.70121761694688</v>
       </c>
       <c r="R3">
-        <v>735.303283675642</v>
+        <v>735.3109585525219</v>
       </c>
       <c r="S3">
-        <v>0.00921646218271239</v>
+        <v>0.007572553084862144</v>
       </c>
       <c r="T3">
-        <v>0.00921646218271239</v>
+        <v>0.007572553084862143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H4">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N4">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O4">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P4">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q4">
-        <v>16.81710966887967</v>
+        <v>18.11442753995355</v>
       </c>
       <c r="R4">
-        <v>151.353987019917</v>
+        <v>163.029847859582</v>
       </c>
       <c r="S4">
-        <v>0.001897106035755375</v>
+        <v>0.0016789525070644</v>
       </c>
       <c r="T4">
-        <v>0.001897106035755375</v>
+        <v>0.001678952507064399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H5">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N5">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O5">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P5">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q5">
-        <v>35.09992929919211</v>
+        <v>39.44521333398311</v>
       </c>
       <c r="R5">
-        <v>315.899363692729</v>
+        <v>355.006920005848</v>
       </c>
       <c r="S5">
-        <v>0.003959556014034147</v>
+        <v>0.003656016160196628</v>
       </c>
       <c r="T5">
-        <v>0.003959556014034147</v>
+        <v>0.003656016160196627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
         <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J6">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N6">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P6">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q6">
-        <v>1282.42856300001</v>
+        <v>1901.220950545039</v>
       </c>
       <c r="R6">
-        <v>11541.85706700009</v>
+        <v>17110.98855490535</v>
       </c>
       <c r="S6">
-        <v>0.1446683178735843</v>
+        <v>0.176216426070351</v>
       </c>
       <c r="T6">
-        <v>0.1446683178735843</v>
+        <v>0.176216426070351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
         <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J7">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P7">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q7">
         <v>2906.683842300345</v>
       </c>
       <c r="R7">
-        <v>26160.1545807031</v>
+        <v>26160.15458070311</v>
       </c>
       <c r="S7">
-        <v>0.3278974550225409</v>
+        <v>0.2694086861707284</v>
       </c>
       <c r="T7">
-        <v>0.327897455022541</v>
+        <v>0.2694086861707284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
         <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J8">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N8">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O8">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P8">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q8">
-        <v>598.3084780192482</v>
+        <v>644.4569050337121</v>
       </c>
       <c r="R8">
-        <v>5384.776302173234</v>
+        <v>5800.11214530341</v>
       </c>
       <c r="S8">
-        <v>0.06749403715873749</v>
+        <v>0.05973208559943756</v>
       </c>
       <c r="T8">
-        <v>0.06749403715873752</v>
+        <v>0.05973208559943756</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
         <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J9">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N9">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O9">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P9">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q9">
-        <v>1248.76305685541</v>
+        <v>1403.342172836804</v>
       </c>
       <c r="R9">
-        <v>11238.86751169869</v>
+        <v>12630.07955553124</v>
       </c>
       <c r="S9">
-        <v>0.1408705763971244</v>
+        <v>0.1300700700674528</v>
       </c>
       <c r="T9">
-        <v>0.1408705763971244</v>
+        <v>0.1300700700674528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H10">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N10">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P10">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q10">
-        <v>550.858621698401</v>
+        <v>1002.36345162047</v>
       </c>
       <c r="R10">
-        <v>4957.727595285609</v>
+        <v>9021.271064584225</v>
       </c>
       <c r="S10">
-        <v>0.06214130945496427</v>
+        <v>0.09290498561856445</v>
       </c>
       <c r="T10">
-        <v>0.06214130945496429</v>
+        <v>0.09290498561856442</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H11">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P11">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q11">
-        <v>1248.546625737131</v>
+        <v>1532.464518709605</v>
       </c>
       <c r="R11">
-        <v>11236.91963163418</v>
+        <v>13792.18066838645</v>
       </c>
       <c r="S11">
-        <v>0.1408461612158656</v>
+        <v>0.1420378943800356</v>
       </c>
       <c r="T11">
-        <v>0.1408461612158656</v>
+        <v>0.1420378943800356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H12">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N12">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O12">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P12">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q12">
-        <v>256.9994096054366</v>
+        <v>339.7711599827722</v>
       </c>
       <c r="R12">
-        <v>2312.99468644893</v>
+        <v>3057.94043984495</v>
       </c>
       <c r="S12">
-        <v>0.02899161275318732</v>
+        <v>0.03149200490178545</v>
       </c>
       <c r="T12">
-        <v>0.02899161275318734</v>
+        <v>0.03149200490178545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H13">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N13">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O13">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P13">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q13">
-        <v>536.397828443601</v>
+        <v>739.8713462346444</v>
       </c>
       <c r="R13">
-        <v>4827.580455992409</v>
+        <v>6658.8421161118</v>
       </c>
       <c r="S13">
-        <v>0.06051001497537496</v>
+        <v>0.06857566152316587</v>
       </c>
       <c r="T13">
-        <v>0.06051001497537496</v>
+        <v>0.06857566152316584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H14">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I14">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J14">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.21795633333333</v>
+        <v>41.83357366666667</v>
       </c>
       <c r="N14">
-        <v>84.653869</v>
+        <v>125.500721</v>
       </c>
       <c r="O14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="P14">
-        <v>0.2124568395711989</v>
+        <v>0.2773195847425811</v>
       </c>
       <c r="Q14">
-        <v>14.01415642740122</v>
+        <v>35.01149391835222</v>
       </c>
       <c r="R14">
-        <v>126.127407846611</v>
+        <v>315.10344526517</v>
       </c>
       <c r="S14">
-        <v>0.001580910231776706</v>
+        <v>0.00324507276648049</v>
       </c>
       <c r="T14">
-        <v>0.001580910231776706</v>
+        <v>0.003245072766480489</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H15">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I15">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J15">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>191.871922</v>
       </c>
       <c r="O15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="P15">
-        <v>0.4815432848151522</v>
+        <v>0.4239803668761465</v>
       </c>
       <c r="Q15">
-        <v>31.76373579492422</v>
+        <v>53.52736284443777</v>
       </c>
       <c r="R15">
-        <v>285.873622154318</v>
+        <v>481.7462655999399</v>
       </c>
       <c r="S15">
-        <v>0.003583206394033356</v>
+        <v>0.004961233240520337</v>
       </c>
       <c r="T15">
-        <v>0.003583206394033356</v>
+        <v>0.004961233240520336</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H16">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I16">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J16">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.164899</v>
+        <v>14.18032733333333</v>
       </c>
       <c r="N16">
-        <v>39.494697</v>
+        <v>42.540982</v>
       </c>
       <c r="O16">
-        <v>0.09912031905407785</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="P16">
-        <v>0.09912031905407787</v>
+        <v>0.09400302539123752</v>
       </c>
       <c r="Q16">
-        <v>6.538211051060333</v>
+        <v>11.86784681957111</v>
       </c>
       <c r="R16">
-        <v>58.843899459543</v>
+        <v>106.81062137614</v>
       </c>
       <c r="S16">
-        <v>0.0007375631063976624</v>
+        <v>0.001099982382950108</v>
       </c>
       <c r="T16">
-        <v>0.0007375631063976626</v>
+        <v>0.001099982382950108</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H17">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I17">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J17">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.47719633333334</v>
+        <v>30.87848266666667</v>
       </c>
       <c r="N17">
-        <v>82.431589</v>
+        <v>92.635448</v>
       </c>
       <c r="O17">
-        <v>0.2068795565595709</v>
+        <v>0.204697022990035</v>
       </c>
       <c r="P17">
-        <v>0.2068795565595709</v>
+        <v>0.2046970229900349</v>
       </c>
       <c r="Q17">
-        <v>13.64626562792122</v>
+        <v>25.84292264166222</v>
       </c>
       <c r="R17">
-        <v>122.816390651291</v>
+        <v>232.58630377496</v>
       </c>
       <c r="S17">
-        <v>0.001539409173037469</v>
+        <v>0.002395275239219698</v>
       </c>
       <c r="T17">
-        <v>0.001539409173037469</v>
+        <v>0.002395275239219698</v>
       </c>
     </row>
   </sheetData>
